--- a/published-data/fonds-solidarite/fds-2020-12-30/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2020-12-30/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
@@ -4980,10 +4980,10 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>201367</v>
+        <v>201369</v>
       </c>
       <c r="D122" t="n">
-        <v>293585750</v>
+        <v>293589909</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -5740,10 +5740,10 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>805160</v>
+        <v>805159</v>
       </c>
       <c r="D142" t="n">
-        <v>1286096233</v>
+        <v>1286093512</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -8324,10 +8324,10 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>328602</v>
+        <v>328601</v>
       </c>
       <c r="D210" t="n">
-        <v>473818774</v>
+        <v>473817336</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
@@ -8780,10 +8780,10 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>50215</v>
+        <v>50216</v>
       </c>
       <c r="D222" t="n">
-        <v>114638122</v>
+        <v>114642338</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
